--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="データベースレイアウト" sheetId="1" r:id="rId1"/>
+    <sheet name="項目定義リストViewController" sheetId="2" r:id="rId2"/>
+    <sheet name="項目定義リスト　その他クラス" sheetId="3" r:id="rId3"/>
+    <sheet name="VLOOKUP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
@@ -202,6 +205,124 @@
   </si>
   <si>
     <t>itemsOfGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppDelegate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス説明</t>
+    <rPh sb="3" eb="5">
+      <t>セツメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目論理名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモk</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロンr</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目物理名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモk</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ブt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MasterListViewController</t>
+  </si>
+  <si>
+    <t>マスターのViewController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MasterList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターのリスト(テーブル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターのリスト(配列)</t>
+    <rPh sb="9" eb="11">
+      <t>ハイr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可変配列</t>
+    <rPh sb="0" eb="2">
+      <t>カヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不変配列</t>
+    <rPh sb="0" eb="2">
+      <t>フヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Marr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不変配列</t>
+    <rPh sb="0" eb="2">
+      <t>フヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイr</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -274,8 +395,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -286,12 +413,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -622,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -733,4 +866,171 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>